--- a/anagrAmble/anagrAmble/Resource/GameScene/統合リスト.xlsx
+++ b/anagrAmble/anagrAmble/Resource/GameScene/統合リスト.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="player" sheetId="1" r:id="rId1"/>
+    <sheet name="object" sheetId="2" r:id="rId2"/>
+    <sheet name="effect" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="369">
   <si>
     <t>左下</t>
     <rPh sb="0" eb="2">
@@ -1168,10 +1169,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ObjectFile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ブロック</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1263,317 +1260,626 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>L紋章B　S　OFF</t>
+    <t>槍</t>
+    <rPh sb="0" eb="1">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>槍B</t>
+    <rPh sb="0" eb="1">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベルトコンベアB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉０</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉１</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉２</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉３</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉４</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉５</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉６</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉７</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉８</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>扉９</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x0,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x96,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x0,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x192,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x192,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x192,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x288,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x288,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x384,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x480,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x576,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x672,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x672,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x768,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x864,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x864,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x960,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x960,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1056,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1152,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1152,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1248,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1344,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1344,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1344,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1440,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1440,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1536,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1632,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1728,y0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1728,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1824,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1920,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1536,y96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x288,y480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x576,y480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x864,y480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1152,y480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1440,y480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x0,y480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x288,y864</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x576,y864</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x864,y864</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x0,y864</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1152,y864</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x1440,y864</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3紋章B　S　ON</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>L紋章B　F　OFF</t>
+    <t>3紋章B　F　ON</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>L紋章B　S　ON</t>
+    <t>3紋章B　S　OFF</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>L紋章B　F　ON</t>
+    <t>3紋章B　F　OFF</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>S紋章B　ON</t>
+    <t>2紋章B　OFF</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>S紋章B　OFF</t>
+    <t>2紋章B　ON</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>槍</t>
-    <rPh sb="0" eb="1">
-      <t>ヤリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>槍B</t>
-    <rPh sb="0" eb="1">
-      <t>ヤリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベルトコンベアB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉０</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉１</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉２</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉３</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉４</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉５</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉６</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉７</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉８</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>扉９</t>
-    <rPh sb="0" eb="1">
-      <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x96,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x192,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x192,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x192,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x384,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x480,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x576,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x672,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x672,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x768,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x960,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x960,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1056,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1248,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1344,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1344,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1344,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1536,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1632,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1728,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1728,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1824,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1920,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1536,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x576,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x576,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y864</t>
+    <t>ObjectFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縦サイズ</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横サイズ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>effectFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気０１</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気０２</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気０３</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気０４</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気０５</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気００</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原点(x,y)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の球A</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の球B</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の球C</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の球D</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>煙A</t>
+    <rPh sb="0" eb="1">
+      <t>ケムリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>煙B</t>
+    <rPh sb="0" eb="1">
+      <t>ケムリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>煙C</t>
+    <rPh sb="0" eb="1">
+      <t>ケムリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天使００</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天使０１</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の柱００</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の柱０１</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の柱０２</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の柱０３</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光の柱０４</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>96px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>96px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,192</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,288</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,384</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,586</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>48px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>96,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>96,48</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>96,96</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>192px</t>
+  </si>
+  <si>
+    <t>192px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>192px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天使０2</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>336,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1080px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>544,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>576,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>608,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>640,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>672,0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1653,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,6 +1977,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,8 +2301,8 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3463,9 +3775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3498,78 +3810,78 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
         <v>239</v>
       </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -3578,15 +3890,15 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -3595,49 +3907,49 @@
         <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
@@ -3646,134 +3958,134 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>130</v>
@@ -3782,49 +4094,49 @@
         <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
         <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
         <v>225</v>
@@ -3833,21 +4145,21 @@
         <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" t="s">
         <v>298</v>
-      </c>
-      <c r="D22" t="s">
-        <v>305</v>
       </c>
       <c r="E22" t="s">
         <v>131</v>
@@ -3858,13 +4170,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
         <v>134</v>
@@ -3875,172 +4187,522 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D26" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F26" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F29" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" t="s">
         <v>306</v>
       </c>
-      <c r="D30" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" t="s">
-        <v>313</v>
-      </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
         <v>307</v>
       </c>
-      <c r="D31" t="s">
-        <v>308</v>
-      </c>
-      <c r="E31" t="s">
-        <v>314</v>
-      </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" t="s">
         <v>309</v>
       </c>
-      <c r="E32" t="s">
-        <v>316</v>
-      </c>
       <c r="F32" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F33" t="s">
         <v>309</v>
       </c>
-      <c r="D33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F33" t="s">
-        <v>316</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="7">
+        <v>96144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="7">
+        <v>144192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="7">
+        <v>144382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="7">
+        <v>336192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="7">
+        <v>336384</v>
+      </c>
+      <c r="D18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/anagrAmble/anagrAmble/Resource/GameScene/統合リスト.xlsx
+++ b/anagrAmble/anagrAmble/Resource/GameScene/統合リスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="374">
   <si>
     <t>左下</t>
     <rPh sb="0" eb="2">
@@ -1348,190 +1348,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>x0,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x96,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x192,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x192,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x192,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x384,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x480,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x576,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x672,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x672,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x768,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x960,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x960,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1056,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1248,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1344,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1344,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1344,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1536,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1632,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1728,y0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1728,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1824,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1920,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1536,y96</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x576,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y480</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x288,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x576,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x864,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x0,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1152,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x1440,y864</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3紋章B　S　ON</t>
     <rPh sb="1" eb="3">
       <t>モンショウ</t>
@@ -1592,10 +1408,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>effectFile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>電気０１</t>
     <rPh sb="0" eb="2">
       <t>デンキ</t>
@@ -1880,6 +1692,207 @@
   </si>
   <si>
     <t>672,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EffectFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>288px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>384px</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通電エフェクト　００</t>
+    <rPh sb="0" eb="2">
+      <t>ツウデン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通電エフェクト　０１</t>
+    <rPh sb="0" eb="2">
+      <t>ツウデン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通電エフェクト　０２</t>
+    <rPh sb="0" eb="2">
+      <t>ツウデン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通電エフェクト　０３</t>
+    <rPh sb="0" eb="2">
+      <t>ツウデン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通電エフェクト　０４</t>
+    <rPh sb="0" eb="2">
+      <t>ツウデン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通電エフェクト　０５</t>
+    <rPh sb="0" eb="2">
+      <t>ツウデン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原点(,)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>96,0</t>
+  </si>
+  <si>
+    <t>192,0</t>
+  </si>
+  <si>
+    <t>288,0</t>
+  </si>
+  <si>
+    <t>384,0</t>
+  </si>
+  <si>
+    <t>480,0</t>
+  </si>
+  <si>
+    <t>576,0</t>
+  </si>
+  <si>
+    <t>672,0</t>
+  </si>
+  <si>
+    <t>768,0</t>
+  </si>
+  <si>
+    <t>864,0</t>
+  </si>
+  <si>
+    <t>960,0</t>
+  </si>
+  <si>
+    <t>1056,0</t>
+  </si>
+  <si>
+    <t>1152,0</t>
+  </si>
+  <si>
+    <t>1248,0</t>
+  </si>
+  <si>
+    <t>1344,0</t>
+  </si>
+  <si>
+    <t>1440,0</t>
+  </si>
+  <si>
+    <t>1536,0</t>
+  </si>
+  <si>
+    <t>1632,0</t>
+  </si>
+  <si>
+    <t>1728,0</t>
+  </si>
+  <si>
+    <t>1824,0</t>
+  </si>
+  <si>
+    <t>1440,96</t>
+  </si>
+  <si>
+    <t>1536,96</t>
+  </si>
+  <si>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>288,96</t>
+  </si>
+  <si>
+    <t>576,96</t>
+  </si>
+  <si>
+    <t>864,96</t>
+  </si>
+  <si>
+    <t>1152,96</t>
+  </si>
+  <si>
+    <t>0,480</t>
+  </si>
+  <si>
+    <t>288,480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>576,480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>864,480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1152,480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>336,384</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>336,192</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144,382</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144,192</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1440,192</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1440,288</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1440,384</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1440,480</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1440,576</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1440,672</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1981,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3773,592 +3786,581 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
         <v>239</v>
       </c>
-      <c r="C2" t="s">
-        <v>265</v>
+      <c r="C2" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>240</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
+      <c r="C3" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>241</v>
       </c>
-      <c r="C4" t="s">
-        <v>268</v>
+      <c r="C4" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>242</v>
       </c>
-      <c r="C5" t="s">
-        <v>271</v>
+      <c r="C5" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
-        <v>97</v>
+      <c r="C6" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>244</v>
       </c>
-      <c r="C7" t="s">
-        <v>98</v>
+      <c r="C7" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>245</v>
       </c>
-      <c r="C8" t="s">
-        <v>99</v>
+      <c r="C8" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>246</v>
       </c>
-      <c r="C9" t="s">
-        <v>276</v>
+      <c r="C9" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>247</v>
       </c>
-      <c r="C10" t="s">
-        <v>101</v>
+      <c r="C10" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>248</v>
       </c>
-      <c r="C11" t="s">
-        <v>102</v>
+      <c r="C11" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>250</v>
       </c>
-      <c r="C12" t="s">
-        <v>281</v>
+      <c r="C12" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>249</v>
       </c>
-      <c r="C13" t="s">
-        <v>109</v>
+      <c r="C13" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>251</v>
       </c>
-      <c r="C14" t="s">
-        <v>284</v>
+      <c r="C14" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
+        <v>267</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
+        <v>268</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" t="s">
-        <v>290</v>
+        <v>265</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
+        <v>266</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
+        <v>269</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" t="s">
-        <v>294</v>
+        <v>270</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>254</v>
       </c>
-      <c r="C21" t="s">
-        <v>225</v>
+      <c r="C21" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
         <v>297</v>
       </c>
-      <c r="F21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>252</v>
       </c>
-      <c r="C22" t="s">
-        <v>291</v>
+      <c r="C22" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>253</v>
       </c>
-      <c r="C23" t="s">
-        <v>292</v>
+      <c r="C23" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>255</v>
       </c>
-      <c r="C24" t="s">
-        <v>267</v>
+      <c r="C24" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="E24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>256</v>
       </c>
-      <c r="C25" t="s">
-        <v>272</v>
+      <c r="C25" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>257</v>
       </c>
-      <c r="C26" t="s">
-        <v>275</v>
+      <c r="C26" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>258</v>
       </c>
-      <c r="C27" t="s">
-        <v>280</v>
+      <c r="C27" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>259</v>
       </c>
-      <c r="C28" t="s">
-        <v>285</v>
+      <c r="C28" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="E28" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>260</v>
       </c>
-      <c r="C29" t="s">
-        <v>304</v>
+      <c r="C29" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="E29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>261</v>
       </c>
-      <c r="C30" t="s">
-        <v>299</v>
+      <c r="C30" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>262</v>
       </c>
-      <c r="C31" t="s">
-        <v>300</v>
+      <c r="C31" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E31" t="s">
-        <v>307</v>
-      </c>
-      <c r="F31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>263</v>
       </c>
-      <c r="C32" t="s">
-        <v>301</v>
+      <c r="C32" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E32" t="s">
-        <v>309</v>
-      </c>
-      <c r="F32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>264</v>
       </c>
-      <c r="C33" t="s">
-        <v>302</v>
+      <c r="C33" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F33" t="s">
-        <v>309</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D34" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C33 C30:C32 C34:C39" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4366,9 +4368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4385,329 +4387,332 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>327</v>
+        <v>279</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>346</v>
+        <v>274</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>347</v>
+        <v>275</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>348</v>
+        <v>276</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>349</v>
+        <v>277</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>350</v>
+        <v>278</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>351</v>
+        <v>282</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>353</v>
+        <v>283</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>354</v>
+        <v>284</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>355</v>
+        <v>285</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="C12" s="7">
         <v>96144</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>360</v>
+        <v>287</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="7">
-        <v>144192</v>
+        <v>288</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="7">
-        <v>144382</v>
+        <v>289</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>361</v>
+        <v>290</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" s="7">
-        <v>336192</v>
+        <v>291</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="D17" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="7">
-        <v>336384</v>
+        <v>312</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="E18" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>364</v>
+        <v>292</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>365</v>
+        <v>293</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>366</v>
+        <v>294</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>367</v>
+        <v>295</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="E22" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>343</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>368</v>
+        <v>296</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C17:C18 C14:C15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>